--- a/Realme/Others/Realme DOA Address.xlsx
+++ b/Realme/Others/Realme DOA Address.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="13">
   <si>
     <t>To</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Mob: 01725899584</t>
+  </si>
+  <si>
+    <t>realme Exclusive Service Center Rajshahi</t>
+  </si>
+  <si>
+    <t>MOB: 01725899584</t>
+  </si>
+  <si>
+    <t>Abtab Plaza, Lavel 03, Station Road, New Market Rajshahi</t>
+  </si>
+  <si>
+    <t>Mob: 01309026449</t>
   </si>
 </sst>
 </file>
@@ -89,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -102,6 +114,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,17 +398,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C37"/>
+  <dimension ref="B1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -410,224 +425,242 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C38" s="3"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0.3"/>
-  <pageSetup scale="115" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="110" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>